--- a/data.xlsx
+++ b/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_08E649D627FDDE196646B3A6470958EC40206979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26B38698-D3A1-4655-B19D-62509F63D8C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31433164-79D6-440F-A0D8-D785B945BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,6 +66,15 @@
     <t>CQ[3D]</t>
   </si>
   <si>
+    <t>TM1</t>
+  </si>
+  <si>
+    <t>TM2</t>
+  </si>
+  <si>
+    <t>TM3</t>
+  </si>
+  <si>
     <t>TM4</t>
   </si>
   <si>
@@ -85,15 +94,6 @@
   </si>
   <si>
     <t>TM10</t>
-  </si>
-  <si>
-    <t>TM11</t>
-  </si>
-  <si>
-    <t>TM12</t>
-  </si>
-  <si>
-    <t>TM13</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
